--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2905422.620470461</v>
+        <v>-2906163.083291184</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406075</v>
+        <v>1462975.848406074</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>85.91730397974909</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>87.59491759667145</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711096</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642678</v>
+        <v>59.4206460264267</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874612</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.1834140824707</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.5889224048974</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715472</v>
+        <v>34.81658261715464</v>
       </c>
       <c r="C12" t="n">
-        <v>40.99189795560312</v>
+        <v>40.99189795560304</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192614</v>
+        <v>15.72846453192605</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268824</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067126</v>
+        <v>13.35261136067118</v>
       </c>
       <c r="G12" t="n">
-        <v>63.22534208507278</v>
+        <v>5.358526637114986</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>35.79358117617562</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622706</v>
+        <v>34.98135294622698</v>
       </c>
       <c r="T12" t="n">
         <v>199.0829306929842</v>
@@ -1506,16 +1506,16 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076486</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459166</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922459</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591522</v>
+        <v>35.53022006591513</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549965</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385655</v>
+        <v>14.71736161385647</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021863</v>
+        <v>13.70444699021854</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028129</v>
+        <v>36.0493695902812</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304847</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755892987</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437355</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529492</v>
+        <v>88.37870840529483</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494625</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200255</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632445</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938209</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>37.05903625411469</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F14" t="n">
         <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>124.5304823233393</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642679</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874613</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715472</v>
+        <v>34.81658261715467</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560312</v>
+        <v>40.99189795560306</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192614</v>
+        <v>121.8177383877124</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067126</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45546823140648</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622706</v>
+        <v>34.98135294622701</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027159</v>
+        <v>67.36632966027153</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475011</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>101.0839861167126</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>119.9783821282069</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.0563841707648</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459174</v>
+        <v>73.96609474459169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922462</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591522</v>
+        <v>35.53022006591516</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549968</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385655</v>
+        <v>14.7173616138565</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021863</v>
+        <v>13.70444699021857</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028123</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304849</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892995</v>
+        <v>16.9672475589299</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437359</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529492</v>
+        <v>88.37870840529486</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494628</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200256</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632448</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938212</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>144.5508808461438</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155946</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H17" t="n">
         <v>96.95811367770423</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V17" t="n">
         <v>90.37276924401695</v>
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.15602968011626</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.39628402099284</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>114.2196374132124</v>
       </c>
     </row>
     <row r="19">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>113.1122544509812</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745123</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>49.14350911047305</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149222</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X20" t="n">
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.2817593841244</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>66.98031800355122</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>33.99892176186315</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
-        <v>195.1910385061424</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.14350911047308</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
@@ -2333,7 +2333,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149222</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2384,7 +2384,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="24">
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>104.2817593841244</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>40.60734589463623</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>180.4328844084323</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V25" t="n">
-        <v>14.75815409771008</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.14350911047308</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>35.01183638550108</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C26" t="n">
         <v>215.2288314925555</v>
@@ -2561,10 +2561,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F26" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G26" t="n">
         <v>264.7570588588537</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U26" t="n">
         <v>101.2614631591581</v>
@@ -2621,7 +2621,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>79.03062158184414</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048767</v>
+        <v>16.65389370048764</v>
       </c>
       <c r="T27" t="n">
-        <v>133.0443398814445</v>
+        <v>49.03887041453217</v>
       </c>
       <c r="U27" t="n">
-        <v>75.87966459901078</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017583</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863423</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955552</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U28" t="n">
         <v>136.2626958742862</v>
@@ -2776,10 +2776,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925555</v>
@@ -2798,10 +2798,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G29" t="n">
         <v>264.7570588588537</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068739</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300673</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
@@ -2858,7 +2858,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048767</v>
+        <v>16.65389370048764</v>
       </c>
       <c r="T30" t="n">
-        <v>130.4453451676313</v>
+        <v>49.03887041453217</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9237248774628</v>
+        <v>159.885134065923</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017583</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730916</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863423</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955552</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C32" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D32" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E32" t="n">
         <v>231.8863097938098</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068743</v>
+        <v>41.0931867806874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300677</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U32" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V32" t="n">
         <v>177.7081981916829</v>
@@ -3092,7 +3092,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
         <v>236.1938783776016</v>
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>22.66443870986376</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,7 +3117,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>79.03062158184412</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>17.16522054251558</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453223</v>
+        <v>49.0388704145322</v>
       </c>
       <c r="U33" t="n">
         <v>225.9237248774628</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454193</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863428</v>
+        <v>17.13212013863426</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955555</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V34" t="n">
         <v>102.093583045376</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3272,16 @@
         <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F35" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G35" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W35" t="n">
         <v>111.8614794912951</v>
@@ -3332,7 +3332,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="36">
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>229.5701121667074</v>
+        <v>229.4798227405338</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.0118363855011</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>180.4328844084323</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771008</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047308</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945649</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
         <v>144.5508808461438</v>
       </c>
       <c r="F38" t="n">
-        <v>169.4965565155934</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770418</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149212</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401689</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W38" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X38" t="n">
-        <v>132.351611452351</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
         <v>148.8584494299356</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>95.02406424508726</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>23.79712696322996</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>180.4328844084326</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662025</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409770999</v>
+        <v>195.1910385061424</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047299</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>6.084173352475625</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755494</v>
+        <v>185.507389486854</v>
       </c>
       <c r="V43" t="n">
         <v>31.23762820864468</v>
@@ -3961,7 +3961,7 @@
         <v>65.62298322140768</v>
       </c>
       <c r="X43" t="n">
-        <v>124.9102887231529</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.90293198799625</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>155.283412794887</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.100648449299</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>120.1006484492991</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>6.084173352475625</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>669.5461127292886</v>
+        <v>945.7903865596684</v>
       </c>
       <c r="C11" t="n">
-        <v>669.5461127292886</v>
+        <v>945.7903865596684</v>
       </c>
       <c r="D11" t="n">
-        <v>669.5461127292886</v>
+        <v>859.0052310245683</v>
       </c>
       <c r="E11" t="n">
-        <v>669.5461127292886</v>
+        <v>859.0052310245683</v>
       </c>
       <c r="F11" t="n">
-        <v>581.0663979851756</v>
+        <v>581.0663979851755</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037684</v>
+        <v>295.1224403037685</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608226</v>
+        <v>90.45476164608218</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K11" t="n">
         <v>226.9372683326556</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550281</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5066,25 +5066,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T11" t="n">
-        <v>1365.072875059107</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U11" t="n">
-        <v>1365.072875059107</v>
+        <v>1400.898462378621</v>
       </c>
       <c r="V11" t="n">
-        <v>1167.057059465751</v>
+        <v>1202.882646785265</v>
       </c>
       <c r="W11" t="n">
-        <v>1167.057059465751</v>
+        <v>1202.882646785265</v>
       </c>
       <c r="X11" t="n">
-        <v>926.6383729548855</v>
+        <v>1202.882646785265</v>
       </c>
       <c r="Y11" t="n">
-        <v>669.5461127292886</v>
+        <v>945.7903865596684</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>516.0326877100149</v>
+        <v>249.9385442095859</v>
       </c>
       <c r="C12" t="n">
-        <v>474.6267301791027</v>
+        <v>208.5325866786737</v>
       </c>
       <c r="D12" t="n">
-        <v>458.7393922680661</v>
+        <v>192.6452487676373</v>
       </c>
       <c r="E12" t="n">
-        <v>299.5019372626106</v>
+        <v>166.4548655123967</v>
       </c>
       <c r="F12" t="n">
-        <v>286.0144510397104</v>
+        <v>152.9673792894965</v>
       </c>
       <c r="G12" t="n">
-        <v>222.1504691355964</v>
+        <v>147.5547261206935</v>
       </c>
       <c r="H12" t="n">
         <v>111.399593619506</v>
@@ -5121,19 +5121,19 @@
         <v>54.79813383722129</v>
       </c>
       <c r="K12" t="n">
-        <v>54.79813383722129</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L12" t="n">
-        <v>342.4531504565508</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M12" t="n">
-        <v>719.0727504964839</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211011</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453613</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P12" t="n">
         <v>1418.383708616427</v>
@@ -5145,7 +5145,7 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S12" t="n">
-        <v>1486.360653751015</v>
+        <v>1486.360653751016</v>
       </c>
       <c r="T12" t="n">
         <v>1285.266784364163</v>
@@ -5154,16 +5154,16 @@
         <v>1057.061001659655</v>
       </c>
       <c r="V12" t="n">
-        <v>954.955965178127</v>
+        <v>821.9088934279125</v>
       </c>
       <c r="W12" t="n">
-        <v>833.7656802001402</v>
+        <v>567.6715366997109</v>
       </c>
       <c r="X12" t="n">
-        <v>758.9612517448221</v>
+        <v>359.8200364941781</v>
       </c>
       <c r="Y12" t="n">
-        <v>551.2009529798681</v>
+        <v>285.1068094794391</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858026</v>
+        <v>194.451641485802</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081105</v>
+        <v>158.56253030811</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459895</v>
+        <v>141.4929626459891</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138112</v>
+        <v>126.6269408138108</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661153</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946783</v>
+        <v>76.37056042946766</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184303</v>
+        <v>47.57254097184294</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220477</v>
+        <v>84.15679020220486</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701334</v>
+        <v>218.3899330701336</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383615</v>
+        <v>409.2216288383618</v>
       </c>
       <c r="M13" t="n">
-        <v>613.7275326835531</v>
+        <v>598.8167744819553</v>
       </c>
       <c r="N13" t="n">
-        <v>806.9952085564975</v>
+        <v>676.5957735341103</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624643</v>
+        <v>862.8204075624628</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206714</v>
+        <v>1017.467262206712</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571221</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856987</v>
+        <v>956.1300939856976</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877721</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493634</v>
+        <v>703.7485358493624</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936913</v>
+        <v>582.1111193936904</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069446</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591421</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658276</v>
+        <v>243.0530345658269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>944.512103168563</v>
+        <v>1198.06487148247</v>
       </c>
       <c r="C14" t="n">
-        <v>944.512103168563</v>
+        <v>1198.06487148247</v>
       </c>
       <c r="D14" t="n">
-        <v>907.0787332149117</v>
+        <v>972.8462446259344</v>
       </c>
       <c r="E14" t="n">
-        <v>654.3375523668823</v>
+        <v>720.105063777905</v>
       </c>
       <c r="F14" t="n">
-        <v>376.3987193274895</v>
+        <v>442.1662307385122</v>
       </c>
       <c r="G14" t="n">
-        <v>90.45476164608226</v>
+        <v>156.222273057105</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608226</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020951</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550281</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241023</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>431.6951699071013</v>
+        <v>830.836385157746</v>
       </c>
       <c r="C15" t="n">
-        <v>390.2892123761891</v>
+        <v>789.4304276268338</v>
       </c>
       <c r="D15" t="n">
-        <v>374.4018744651526</v>
+        <v>666.3822070331848</v>
       </c>
       <c r="E15" t="n">
-        <v>215.1644194596971</v>
+        <v>507.1447520277294</v>
       </c>
       <c r="F15" t="n">
-        <v>201.6769332367968</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G15" t="n">
-        <v>63.21720831777893</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H15" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I15" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K15" t="n">
         <v>223.0613211674321</v>
@@ -5367,7 +5367,7 @@
         <v>599.6809212073651</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211011</v>
+        <v>976.3005212472983</v>
       </c>
       <c r="O15" t="n">
         <v>1185.002115453613</v>
@@ -5388,19 +5388,19 @@
         <v>1333.976338311464</v>
       </c>
       <c r="U15" t="n">
-        <v>1105.770555606956</v>
+        <v>1238.817627357171</v>
       </c>
       <c r="V15" t="n">
-        <v>1003.665519125428</v>
+        <v>1136.712590875643</v>
       </c>
       <c r="W15" t="n">
-        <v>749.4281623972265</v>
+        <v>1015.522305897656</v>
       </c>
       <c r="X15" t="n">
-        <v>541.5766621916937</v>
+        <v>940.7178774423384</v>
       </c>
       <c r="Y15" t="n">
-        <v>466.8634351769546</v>
+        <v>866.0046504275992</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858026</v>
+        <v>194.4516414858022</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081105</v>
+        <v>158.5625303081102</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459895</v>
+        <v>141.4929626459893</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138112</v>
+        <v>126.626940813811</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661154</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946783</v>
+        <v>76.37056042946772</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184303</v>
+        <v>47.57254097184298</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220477</v>
+        <v>84.15679020220483</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701334</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383615</v>
+        <v>409.2216288383617</v>
       </c>
       <c r="M16" t="n">
-        <v>613.7275326835531</v>
+        <v>613.7275326835532</v>
       </c>
       <c r="N16" t="n">
-        <v>740.3477848986207</v>
+        <v>691.5065317357082</v>
       </c>
       <c r="O16" t="n">
-        <v>926.5724189269731</v>
+        <v>862.8204075624634</v>
       </c>
       <c r="P16" t="n">
-        <v>1081.219273571223</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856987</v>
+        <v>956.130093985698</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877724</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493634</v>
+        <v>703.7485358493627</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936913</v>
+        <v>582.1111193936907</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069449</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591424</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658276</v>
+        <v>243.0530345658271</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810905</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852424</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230555</v>
       </c>
       <c r="E17" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693749</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372716</v>
@@ -5513,16 +5513,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5546,19 +5546,19 @@
         <v>1521.695353696699</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y17" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>676.8568917754183</v>
+        <v>111.399593619506</v>
       </c>
       <c r="C18" t="n">
-        <v>676.8568917754183</v>
+        <v>111.399593619506</v>
       </c>
       <c r="D18" t="n">
-        <v>527.922482114167</v>
+        <v>111.399593619506</v>
       </c>
       <c r="E18" t="n">
-        <v>368.6850271087114</v>
+        <v>111.399593619506</v>
       </c>
       <c r="F18" t="n">
-        <v>222.1504691355964</v>
+        <v>111.399593619506</v>
       </c>
       <c r="G18" t="n">
-        <v>222.1504691355964</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H18" t="n">
         <v>111.399593619506</v>
@@ -5592,16 +5592,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>54.79813383722129</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K18" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L18" t="n">
-        <v>510.7163377867616</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M18" t="n">
-        <v>873.0305803211011</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N18" t="n">
         <v>873.0305803211011</v>
@@ -5616,28 +5616,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R18" t="n">
-        <v>1508.163753675494</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S18" t="n">
-        <v>1508.163753675494</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T18" t="n">
-        <v>1307.069884288642</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U18" t="n">
-        <v>1307.069884288642</v>
+        <v>924.0139299094402</v>
       </c>
       <c r="V18" t="n">
-        <v>1307.069884288642</v>
+        <v>688.8618216776974</v>
       </c>
       <c r="W18" t="n">
-        <v>1052.83252756044</v>
+        <v>434.6244649494958</v>
       </c>
       <c r="X18" t="n">
-        <v>1052.83252756044</v>
+        <v>226.772964743963</v>
       </c>
       <c r="Y18" t="n">
-        <v>845.0722287954864</v>
+        <v>111.399593619506</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.6887095496726</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C19" t="n">
-        <v>144.6887095496726</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D19" t="n">
-        <v>144.6887095496726</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E19" t="n">
-        <v>144.6887095496726</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F19" t="n">
-        <v>144.6887095496726</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G19" t="n">
         <v>30.43390707393399</v>
@@ -5674,10 +5674,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881258</v>
@@ -5692,31 +5692,31 @@
         <v>326.6579621681116</v>
       </c>
       <c r="Q19" t="n">
-        <v>258.6573258474538</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R19" t="n">
-        <v>258.6573258474538</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S19" t="n">
-        <v>258.6573258474538</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T19" t="n">
-        <v>258.6573258474538</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U19" t="n">
-        <v>209.2358441033929</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V19" t="n">
-        <v>194.3286177420696</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W19" t="n">
-        <v>144.6887095496726</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X19" t="n">
-        <v>144.6887095496726</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6887095496726</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852413</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693739</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243299</v>
+        <v>307.5851632243303</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372716</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020951</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550281</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241022</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.43390707393399</v>
+        <v>670.6888333236946</v>
       </c>
       <c r="C21" t="n">
-        <v>30.43390707393399</v>
+        <v>496.2358040425676</v>
       </c>
       <c r="D21" t="n">
-        <v>30.43390707393399</v>
+        <v>347.3013943813163</v>
       </c>
       <c r="E21" t="n">
-        <v>30.43390707393399</v>
+        <v>347.3013943813163</v>
       </c>
       <c r="F21" t="n">
-        <v>30.43390707393399</v>
+        <v>347.3013943813163</v>
       </c>
       <c r="G21" t="n">
-        <v>30.43390707393399</v>
+        <v>208.8416694622984</v>
       </c>
       <c r="H21" t="n">
-        <v>30.43390707393399</v>
+        <v>98.09079394620794</v>
       </c>
       <c r="I21" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K21" t="n">
         <v>223.0613211674321</v>
@@ -5838,16 +5838,16 @@
         <v>510.7163377867616</v>
       </c>
       <c r="M21" t="n">
-        <v>873.0305803211011</v>
+        <v>887.3359378266947</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211011</v>
+        <v>976.3422254013738</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q21" t="n">
         <v>1521.695353696699</v>
@@ -5862,19 +5862,19 @@
         <v>1268.976064197887</v>
       </c>
       <c r="U21" t="n">
-        <v>1040.77028149338</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="V21" t="n">
-        <v>805.6181732616369</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="W21" t="n">
-        <v>551.3808165334353</v>
+        <v>1254.515969314249</v>
       </c>
       <c r="X21" t="n">
-        <v>343.5293163279025</v>
+        <v>1046.664469108717</v>
       </c>
       <c r="Y21" t="n">
-        <v>135.7690175629486</v>
+        <v>838.9041703437626</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="C22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="D22" t="n">
-        <v>30.43390707393399</v>
+        <v>178.3470006563271</v>
       </c>
       <c r="E22" t="n">
         <v>30.43390707393399</v>
@@ -5911,10 +5911,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531974</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881258</v>
@@ -5944,16 +5944,16 @@
         <v>277.2364804240506</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633104</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810895</v>
+        <v>872.47848878109</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852415</v>
+        <v>743.2932336852419</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693749</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G23" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108021078</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326568</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550294</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241033</v>
       </c>
       <c r="N23" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.01979112136</v>
       </c>
       <c r="O23" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y23" t="n">
         <v>1019.301067000648</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.43390707393399</v>
+        <v>839.0706050195938</v>
       </c>
       <c r="C24" t="n">
-        <v>30.43390707393399</v>
+        <v>664.6175757384668</v>
       </c>
       <c r="D24" t="n">
-        <v>30.43390707393399</v>
+        <v>515.6831660772156</v>
       </c>
       <c r="E24" t="n">
-        <v>30.43390707393399</v>
+        <v>356.4457110717601</v>
       </c>
       <c r="F24" t="n">
-        <v>30.43390707393399</v>
+        <v>209.911153098645</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393399</v>
+        <v>71.45142817962716</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J24" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K24" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L24" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M24" t="n">
-        <v>694.7085237331967</v>
+        <v>808.3825154136799</v>
       </c>
       <c r="N24" t="n">
-        <v>1071.32812377313</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O24" t="n">
-        <v>1383.299658905641</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1437.357835893786</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="S24" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="T24" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="U24" t="n">
-        <v>1040.77028149338</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="V24" t="n">
-        <v>805.6181732616369</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="W24" t="n">
-        <v>551.3808165334353</v>
+        <v>1422.897741010149</v>
       </c>
       <c r="X24" t="n">
-        <v>343.5293163279025</v>
+        <v>1215.046240804616</v>
       </c>
       <c r="Y24" t="n">
-        <v>135.7690175629486</v>
+        <v>1007.285942039662</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="F25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K25" t="n">
         <v>34.26761491947717</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M25" t="n">
         <v>168.8063444881258</v>
@@ -6175,22 +6175,22 @@
         <v>326.6579621681116</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4025233717153</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U25" t="n">
-        <v>94.98104162765435</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V25" t="n">
-        <v>80.07381526633104</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W25" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C26" t="n">
         <v>1250.781708514024</v>
@@ -6215,22 +6215,22 @@
         <v>550.4208230601855</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450492</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471598</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991901</v>
@@ -6248,7 +6248,7 @@
         <v>2734.936491467168</v>
       </c>
       <c r="R26" t="n">
-        <v>2766.304371953158</v>
+        <v>2766.304371953157</v>
       </c>
       <c r="S26" t="n">
         <v>2718.278735061232</v>
@@ -6257,7 +6257,7 @@
         <v>2646.707063508978</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
         <v>2364.919526790957</v>
@@ -6266,7 +6266,7 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.485539360012</v>
+        <v>617.7798920756284</v>
       </c>
       <c r="C27" t="n">
-        <v>510.032510078885</v>
+        <v>443.3268627945014</v>
       </c>
       <c r="D27" t="n">
-        <v>361.0981004176337</v>
+        <v>294.3924531332501</v>
       </c>
       <c r="E27" t="n">
-        <v>201.8606454121782</v>
+        <v>135.1549981277946</v>
       </c>
       <c r="F27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235045</v>
+        <v>79.69031420235044</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325612</v>
       </c>
       <c r="L27" t="n">
-        <v>535.6085181518908</v>
+        <v>535.6085181518907</v>
       </c>
       <c r="M27" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763533</v>
       </c>
       <c r="N27" t="n">
         <v>1336.893829743946</v>
@@ -6333,22 +6333,22 @@
         <v>1968.736488270567</v>
       </c>
       <c r="T27" t="n">
-        <v>1834.348266168098</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U27" t="n">
-        <v>1757.702140310511</v>
+        <v>1690.996493026127</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.550032078768</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W27" t="n">
-        <v>1268.312675350567</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X27" t="n">
-        <v>1060.461175145034</v>
+        <v>993.7555278606503</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.70087638008</v>
+        <v>785.9952290956965</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209085</v>
+        <v>96.31218528794281</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695715</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695715</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695715</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992274</v>
       </c>
       <c r="G28" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998146</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906315</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906316</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32608743906316</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K28" t="n">
-        <v>207.7034149602738</v>
+        <v>132.3734726361005</v>
       </c>
       <c r="L28" t="n">
-        <v>416.6792953817838</v>
+        <v>192.8057333819431</v>
       </c>
       <c r="M28" t="n">
-        <v>639.3293838802574</v>
+        <v>266.9122022047491</v>
       </c>
       <c r="N28" t="n">
-        <v>717.1083829324124</v>
+        <v>357.4104975060477</v>
       </c>
       <c r="O28" t="n">
-        <v>772.9335819383792</v>
+        <v>561.7793161876821</v>
       </c>
       <c r="P28" t="n">
-        <v>797.1810015602432</v>
+        <v>734.5703554852136</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359704</v>
+        <v>816.4665515030043</v>
       </c>
       <c r="R28" t="n">
-        <v>803.738161778764</v>
+        <v>799.161379645798</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438594</v>
+        <v>728.4025421108935</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426403</v>
+        <v>650.6852409096743</v>
       </c>
       <c r="U28" t="n">
-        <v>517.622936300937</v>
+        <v>513.0461541679712</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419714</v>
+        <v>409.9213228090055</v>
       </c>
       <c r="W28" t="n">
-        <v>276.640591751932</v>
+        <v>272.0638096189662</v>
       </c>
       <c r="X28" t="n">
-        <v>200.2106977008359</v>
+        <v>195.6339155678701</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.977775404227</v>
+        <v>126.4009932712613</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028723</v>
+        <v>809.8470710028719</v>
       </c>
       <c r="F29" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601855</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754852</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H29" t="n">
         <v>96.83435691450495</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J29" t="n">
         <v>234.1884011210062</v>
@@ -6467,13 +6467,13 @@
         <v>548.9166880491197</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471601</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O29" t="n">
         <v>2233.040522606063</v>
@@ -6482,31 +6482,31 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R29" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>535.5511296987607</v>
+        <v>684.485539360012</v>
       </c>
       <c r="C30" t="n">
-        <v>361.0981004176337</v>
+        <v>510.032510078885</v>
       </c>
       <c r="D30" t="n">
         <v>361.0981004176337</v>
@@ -6528,28 +6528,28 @@
         <v>201.8606454121782</v>
       </c>
       <c r="F30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="G30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235044</v>
       </c>
       <c r="K30" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L30" t="n">
-        <v>535.6085181518908</v>
+        <v>535.6085181518907</v>
       </c>
       <c r="M30" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763533</v>
       </c>
       <c r="N30" t="n">
         <v>1336.893829743946</v>
@@ -6570,22 +6570,22 @@
         <v>1968.736488270567</v>
       </c>
       <c r="T30" t="n">
-        <v>1836.973513353767</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U30" t="n">
-        <v>1608.76773064926</v>
+        <v>1757.702140310511</v>
       </c>
       <c r="V30" t="n">
-        <v>1373.615622417517</v>
+        <v>1522.550032078768</v>
       </c>
       <c r="W30" t="n">
-        <v>1119.378265689315</v>
+        <v>1268.312675350567</v>
       </c>
       <c r="X30" t="n">
-        <v>911.5267654837826</v>
+        <v>1060.461175145034</v>
       </c>
       <c r="Y30" t="n">
-        <v>703.7664667188287</v>
+        <v>852.70087638008</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8889674209085</v>
+        <v>100.8889674209084</v>
       </c>
       <c r="C31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="D31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992276</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998152</v>
+        <v>65.61152179998147</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="K31" t="n">
-        <v>59.15979528460635</v>
+        <v>59.15979528460633</v>
       </c>
       <c r="L31" t="n">
-        <v>143.4543881061761</v>
+        <v>268.1356757061164</v>
       </c>
       <c r="M31" t="n">
-        <v>366.1044766046497</v>
+        <v>490.78576420459</v>
       </c>
       <c r="N31" t="n">
-        <v>592.427095332472</v>
+        <v>568.564763256745</v>
       </c>
       <c r="O31" t="n">
-        <v>796.7959140141064</v>
+        <v>772.9335819383793</v>
       </c>
       <c r="P31" t="n">
-        <v>821.0433336359704</v>
+        <v>797.1810015602433</v>
       </c>
       <c r="Q31" t="n">
-        <v>821.0433336359704</v>
+        <v>821.04333363597</v>
       </c>
       <c r="R31" t="n">
-        <v>803.738161778764</v>
+        <v>803.7381617787637</v>
       </c>
       <c r="S31" t="n">
-        <v>732.9793242438594</v>
+        <v>732.9793242438592</v>
       </c>
       <c r="T31" t="n">
-        <v>655.2620230426403</v>
+        <v>655.2620230426401</v>
       </c>
       <c r="U31" t="n">
-        <v>517.622936300937</v>
+        <v>517.6229363009368</v>
       </c>
       <c r="V31" t="n">
-        <v>414.4981049419714</v>
+        <v>414.4981049419711</v>
       </c>
       <c r="W31" t="n">
-        <v>276.640591751932</v>
+        <v>276.6405917519318</v>
       </c>
       <c r="X31" t="n">
-        <v>200.2106977008359</v>
+        <v>200.2106977008357</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.977775404227</v>
+        <v>130.9777754042269</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607516</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754196</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028728</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601864</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754852</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450502</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I32" t="n">
         <v>55.32608743906317</v>
@@ -6701,10 +6701,10 @@
         <v>234.1884011210062</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491196</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471596</v>
+        <v>955.9037100471597</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
@@ -6713,10 +6713,10 @@
         <v>1851.630069864825</v>
       </c>
       <c r="O32" t="n">
-        <v>2233.040522606062</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
         <v>2734.936491467169</v>
@@ -6731,19 +6731,19 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287608</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953607</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>532.9258825130908</v>
+        <v>617.7798920756284</v>
       </c>
       <c r="C33" t="n">
-        <v>510.032510078885</v>
+        <v>443.3268627945014</v>
       </c>
       <c r="D33" t="n">
-        <v>361.0981004176337</v>
+        <v>294.3924531332501</v>
       </c>
       <c r="E33" t="n">
-        <v>201.8606454121782</v>
+        <v>135.1549981277946</v>
       </c>
       <c r="F33" t="n">
         <v>55.32608743906317</v>
@@ -6777,16 +6777,16 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K33" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L33" t="n">
-        <v>535.6085181518908</v>
+        <v>535.6085181518907</v>
       </c>
       <c r="M33" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763533</v>
       </c>
       <c r="N33" t="n">
         <v>1336.893829743946</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1901.221085316631</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S33" t="n">
-        <v>1883.882478708029</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T33" t="n">
-        <v>1834.348266168098</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U33" t="n">
-        <v>1606.14248346359</v>
+        <v>1690.996493026127</v>
       </c>
       <c r="V33" t="n">
-        <v>1370.990375231847</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W33" t="n">
-        <v>1116.753018503646</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X33" t="n">
-        <v>908.9015182981127</v>
+        <v>993.7555278606503</v>
       </c>
       <c r="Y33" t="n">
-        <v>701.1412195331588</v>
+        <v>785.9952290956965</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.32388724474187</v>
+        <v>100.8889674209085</v>
       </c>
       <c r="C34" t="n">
-        <v>73.94736116375616</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="D34" t="n">
-        <v>75.36166255139338</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93565920695735</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998155</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H34" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900448</v>
+        <v>56.67269700900451</v>
       </c>
       <c r="J34" t="n">
-        <v>128.5397647905572</v>
+        <v>56.67269700900451</v>
       </c>
       <c r="K34" t="n">
-        <v>132.3734726361004</v>
+        <v>209.0500245302152</v>
       </c>
       <c r="L34" t="n">
-        <v>341.3493530576105</v>
+        <v>269.4822852760577</v>
       </c>
       <c r="M34" t="n">
-        <v>423.1868200863599</v>
+        <v>492.1323737745313</v>
       </c>
       <c r="N34" t="n">
-        <v>500.9658191385148</v>
+        <v>718.4549925023537</v>
       </c>
       <c r="O34" t="n">
-        <v>705.3346378201492</v>
+        <v>796.7959140141064</v>
       </c>
       <c r="P34" t="n">
-        <v>729.5820574420131</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="Q34" t="n">
-        <v>811.4782534598039</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="R34" t="n">
-        <v>794.1730816025976</v>
+        <v>803.738161778764</v>
       </c>
       <c r="S34" t="n">
-        <v>723.4142440676929</v>
+        <v>732.9793242438594</v>
       </c>
       <c r="T34" t="n">
-        <v>645.6969428664738</v>
+        <v>655.2620230426403</v>
       </c>
       <c r="U34" t="n">
-        <v>508.0578561247705</v>
+        <v>517.622936300937</v>
       </c>
       <c r="V34" t="n">
-        <v>404.9330247658048</v>
+        <v>414.4981049419714</v>
       </c>
       <c r="W34" t="n">
-        <v>267.0755115757654</v>
+        <v>276.640591751932</v>
       </c>
       <c r="X34" t="n">
-        <v>190.6456175246693</v>
+        <v>200.2106977008359</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.4126952280604</v>
+        <v>130.977775404227</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810896</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693741</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243301</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372716</v>
       </c>
       <c r="H35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020962</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550281</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241025</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6953,19 +6953,19 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P35" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U35" t="n">
         <v>1507.62865247297</v>
@@ -7002,61 +7002,61 @@
         <v>176.968465047049</v>
       </c>
       <c r="F36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J36" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K36" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="L36" t="n">
-        <v>318.0889236932636</v>
+        <v>342.4531504565508</v>
       </c>
       <c r="M36" t="n">
-        <v>694.7085237331967</v>
+        <v>719.0727504964839</v>
       </c>
       <c r="N36" t="n">
-        <v>1071.32812377313</v>
+        <v>1095.692350536417</v>
       </c>
       <c r="O36" t="n">
-        <v>1383.299658905641</v>
+        <v>1407.663885668929</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="V36" t="n">
-        <v>1289.806351508106</v>
+        <v>1289.897552948685</v>
       </c>
       <c r="W36" t="n">
-        <v>1035.568994779905</v>
+        <v>1035.660196220484</v>
       </c>
       <c r="X36" t="n">
-        <v>1035.568994779905</v>
+        <v>827.8086960149508</v>
       </c>
       <c r="Y36" t="n">
         <v>827.8086960149508</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="C37" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="D37" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="E37" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="F37" t="n">
-        <v>30.43390707393399</v>
+        <v>65.79939837241994</v>
       </c>
       <c r="G37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531974</v>
       </c>
       <c r="M37" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P37" t="n">
         <v>326.6579621681116</v>
@@ -7120,25 +7120,25 @@
         <v>326.6579621681116</v>
       </c>
       <c r="S37" t="n">
-        <v>144.4025233717153</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T37" t="n">
-        <v>144.4025233717153</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U37" t="n">
-        <v>94.98104162765436</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V37" t="n">
-        <v>80.07381526633105</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W37" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X37" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810886</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852405</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230536</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693746</v>
+        <v>478.7938061693731</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243307</v>
+        <v>307.5851632243293</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H38" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
         <v>789.5552979241022</v>
@@ -7196,28 +7196,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472969</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973962</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548411</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131895</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000647</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>659.5933589948828</v>
+        <v>500.3559039894272</v>
       </c>
       <c r="C39" t="n">
-        <v>485.1403297137558</v>
+        <v>325.9028747083003</v>
       </c>
       <c r="D39" t="n">
-        <v>336.2059200525046</v>
+        <v>176.968465047049</v>
       </c>
       <c r="E39" t="n">
         <v>176.968465047049</v>
       </c>
       <c r="F39" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G39" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H39" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I39" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J39" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K39" t="n">
-        <v>30.43390707393399</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L39" t="n">
-        <v>318.0889236932636</v>
+        <v>486.3521110234743</v>
       </c>
       <c r="M39" t="n">
-        <v>694.7085237331967</v>
+        <v>862.9717110634074</v>
       </c>
       <c r="N39" t="n">
-        <v>1071.32812377313</v>
+        <v>976.3422254013735</v>
       </c>
       <c r="O39" t="n">
-        <v>1383.299658905641</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.6953536967</v>
+        <v>1425.711450418833</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.6953536967</v>
+        <v>1425.711450418833</v>
       </c>
       <c r="U39" t="n">
-        <v>1521.6953536967</v>
+        <v>1197.505667714325</v>
       </c>
       <c r="V39" t="n">
-        <v>1497.657851713639</v>
+        <v>962.3535594825828</v>
       </c>
       <c r="W39" t="n">
-        <v>1243.420494985437</v>
+        <v>708.1162027543812</v>
       </c>
       <c r="X39" t="n">
-        <v>1035.568994779905</v>
+        <v>708.1162027543812</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.8086960149508</v>
+        <v>500.3559039894272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531974</v>
       </c>
       <c r="M40" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N40" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O40" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P40" t="n">
         <v>326.6579621681116</v>
@@ -7357,25 +7357,25 @@
         <v>326.6579621681116</v>
       </c>
       <c r="S40" t="n">
-        <v>144.4025233717151</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T40" t="n">
-        <v>144.4025233717151</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U40" t="n">
-        <v>94.98104162765419</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V40" t="n">
-        <v>80.07381526633097</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="41">
@@ -7409,16 +7409,16 @@
         <v>63.97560257890036</v>
       </c>
       <c r="J41" t="n">
-        <v>94.29429658517591</v>
+        <v>94.29429658517589</v>
       </c>
       <c r="K41" t="n">
-        <v>260.478963837622</v>
+        <v>260.4789638376219</v>
       </c>
       <c r="L41" t="n">
-        <v>518.9223661599947</v>
+        <v>518.9223661599945</v>
       </c>
       <c r="M41" t="n">
-        <v>823.0969934290686</v>
+        <v>823.0969934290683</v>
       </c>
       <c r="N41" t="n">
         <v>1117.561486626325</v>
@@ -7427,7 +7427,7 @@
         <v>1350.428319691895</v>
       </c>
       <c r="P41" t="n">
-        <v>1511.500391241233</v>
+        <v>1557.19370786547</v>
       </c>
       <c r="Q41" t="n">
         <v>1600.930365825903</v>
@@ -7491,22 +7491,22 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K42" t="n">
-        <v>91.22965366413388</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="L42" t="n">
-        <v>378.8846702834634</v>
+        <v>275.5730252031908</v>
       </c>
       <c r="M42" t="n">
-        <v>766.5437285079261</v>
+        <v>663.2320834276534</v>
       </c>
       <c r="N42" t="n">
-        <v>1180.169981875518</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1492.14151700803</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090571</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.523110170844</v>
@@ -7570,43 +7570,43 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896005</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480264</v>
       </c>
       <c r="M43" t="n">
-        <v>172.8828996176088</v>
+        <v>172.8828996176087</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697636</v>
       </c>
       <c r="O43" t="n">
         <v>306.4870976757305</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="T43" t="n">
         <v>324.5888876486292</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591798</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V43" t="n">
-        <v>226.968312652468</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146824</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X43" t="n">
         <v>34.51046220341689</v>
@@ -7646,16 +7646,16 @@
         <v>63.97560257890036</v>
       </c>
       <c r="J44" t="n">
-        <v>139.9876132094134</v>
+        <v>139.9876132094138</v>
       </c>
       <c r="K44" t="n">
-        <v>306.1722804618595</v>
+        <v>306.1722804618598</v>
       </c>
       <c r="L44" t="n">
-        <v>564.6156827842321</v>
+        <v>564.6156827842324</v>
       </c>
       <c r="M44" t="n">
-        <v>868.790310053306</v>
+        <v>868.7903100533063</v>
       </c>
       <c r="N44" t="n">
         <v>1163.254803250563</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.6699141243657</v>
+        <v>208.9634914845439</v>
       </c>
       <c r="C45" t="n">
-        <v>489.2168848432387</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D45" t="n">
-        <v>340.2824751819874</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E45" t="n">
-        <v>181.0450201765319</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F45" t="n">
         <v>34.51046220341689</v>
@@ -7728,19 +7728,19 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>91.22965366413388</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>378.8846702834634</v>
+        <v>490.4286661529572</v>
       </c>
       <c r="M45" t="n">
-        <v>766.5437285079261</v>
+        <v>878.0877243774198</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.169981875518</v>
+        <v>1291.713977745012</v>
       </c>
       <c r="O45" t="n">
-        <v>1492.14151700803</v>
+        <v>1603.685512877524</v>
       </c>
       <c r="P45" t="n">
         <v>1725.523110170844</v>
@@ -7752,25 +7752,25 @@
         <v>1725.523110170844</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1711.479744526403</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.523110170844</v>
+        <v>1510.385875139551</v>
       </c>
       <c r="U45" t="n">
-        <v>1568.671178054797</v>
+        <v>1282.180092435043</v>
       </c>
       <c r="V45" t="n">
-        <v>1333.519069823054</v>
+        <v>1047.0279842033</v>
       </c>
       <c r="W45" t="n">
-        <v>1079.281713094852</v>
+        <v>792.7906274750987</v>
       </c>
       <c r="X45" t="n">
-        <v>871.4302128893196</v>
+        <v>584.9391272695659</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.6699141243657</v>
+        <v>377.1788285046119</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158401</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158401</v>
       </c>
       <c r="D46" t="n">
         <v>34.51046220341689</v>
@@ -7807,49 +7807,49 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896005</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480264</v>
       </c>
       <c r="M46" t="n">
-        <v>172.8828996176088</v>
+        <v>172.8828996176087</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697636</v>
       </c>
       <c r="O46" t="n">
         <v>306.4870976757305</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="S46" t="n">
-        <v>209.4207309851712</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="T46" t="n">
-        <v>203.2751013362059</v>
+        <v>324.5888876486292</v>
       </c>
       <c r="U46" t="n">
-        <v>137.2076861467565</v>
+        <v>258.5214724591797</v>
       </c>
       <c r="V46" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524679</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225914</v>
+        <v>160.6824710146824</v>
       </c>
       <c r="X46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158401</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158401</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>217.0510374314573</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>234.7276077790398</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>80.27972245565155</v>
+        <v>80.27972245565158</v>
       </c>
       <c r="M15" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>337.6488447942035</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>289.549247634106</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565158</v>
       </c>
       <c r="M18" t="n">
-        <v>440.1042398205825</v>
+        <v>374.8513543081418</v>
       </c>
       <c r="N18" t="n">
-        <v>61.53807801265202</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>440.1042398205825</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>61.53807801265202</v>
+        <v>151.4434189971763</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172075</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>374.8031641565209</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368269</v>
+        <v>441.9619164368271</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661689</v>
       </c>
       <c r="P24" t="n">
-        <v>222.5174167492744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751717</v>
+        <v>94.50242152751719</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N36" t="n">
         <v>441.9619164368269</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>222.5174167492746</v>
+        <v>197.9070866853477</v>
       </c>
       <c r="Q36" t="n">
         <v>105.7220906850686</v>
@@ -10902,22 +10902,22 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368269</v>
+        <v>176.0537490611027</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>222.5174167492746</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>105.7220906850686</v>
@@ -11139,10 +11139,10 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K42" t="n">
-        <v>151.7945341141</v>
+        <v>94.50242152751719</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>323.7772608392616</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>151.7945341141</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>205.7920657414586</v>
       </c>
       <c r="Q45" t="n">
         <v>105.7220906850686</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382949</v>
+        <v>233.5562907382948</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879703</v>
+        <v>137.0491366082211</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5645271123274</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.87283976874603</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247062</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457563</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C14" t="n">
         <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
-        <v>185.9074043338557</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>78.09051954777024</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642674</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.1834140824707</v>
+        <v>89.18341408247065</v>
       </c>
       <c r="U14" t="n">
         <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X14" t="n">
         <v>238.0144996457564</v>
@@ -26314,7 +26314,7 @@
         <v>122891.4508075557</v>
       </c>
       <c r="C2" t="n">
-        <v>122891.4508075557</v>
+        <v>122891.4508075558</v>
       </c>
       <c r="D2" t="n">
         <v>122891.4508075558</v>
@@ -26329,7 +26329,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="H2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="I2" t="n">
         <v>123156.2654796425</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189902</v>
+        <v>319206.1449189903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472427</v>
+        <v>84530.31055472423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472424</v>
+        <v>84530.3105547242</v>
       </c>
       <c r="M3" t="n">
         <v>87131.09894239517</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510444</v>
+        <v>34584.19673510459</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26485,13 +26485,13 @@
         <v>45806.17671431452</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="J5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="K5" t="n">
         <v>57382.03161561136</v>
@@ -26500,10 +26500,10 @@
         <v>57382.03161561135</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="O5" t="n">
         <v>47518.94570368935</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-341634.6586351201</v>
+        <v>-341639.0722129883</v>
       </c>
       <c r="C6" t="n">
-        <v>-341634.6586351201</v>
+        <v>-341639.0722129882</v>
       </c>
       <c r="D6" t="n">
-        <v>-341634.6586351201</v>
+        <v>-341639.0722129882</v>
       </c>
       <c r="E6" t="n">
-        <v>-552962.4235505909</v>
+        <v>-553257.4274306725</v>
       </c>
       <c r="F6" t="n">
-        <v>-233756.2786316006</v>
+        <v>-234051.2825116821</v>
       </c>
       <c r="G6" t="n">
-        <v>-376585.5220308119</v>
+        <v>-376585.5220308118</v>
       </c>
       <c r="H6" t="n">
         <v>-292055.2114760876</v>
       </c>
       <c r="I6" t="n">
-        <v>-292055.2114760876</v>
+        <v>-292055.2114760877</v>
       </c>
       <c r="J6" t="n">
-        <v>-418985.7397699151</v>
+        <v>-418985.7397699152</v>
       </c>
       <c r="K6" t="n">
         <v>-302069.6816087046</v>
       </c>
       <c r="L6" t="n">
-        <v>-386599.9921634289</v>
+        <v>-386599.9921634287</v>
       </c>
       <c r="M6" t="n">
         <v>-379186.3104184828</v>
       </c>
       <c r="N6" t="n">
-        <v>-292055.2114760877</v>
+        <v>-292055.2114760876</v>
       </c>
       <c r="O6" t="n">
-        <v>-327207.78124149</v>
+        <v>-327207.7812414902</v>
       </c>
       <c r="P6" t="n">
         <v>-292623.5845063856</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G2" t="n">
         <v>237.379489226118</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="J2" t="n">
         <v>150.044060278452</v>
@@ -26716,7 +26716,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="N2" t="n">
         <v>237.379489226118</v>
@@ -26747,37 +26747,37 @@
         <v>124.777571485054</v>
       </c>
       <c r="F3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="G3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="H3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="I3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="J3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="K3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="L3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="M3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="N3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="O3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="P3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
     </row>
     <row r="4">
@@ -26808,22 +26808,22 @@
         <v>380.4238384241748</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.423838424175</v>
       </c>
       <c r="J4" t="n">
+        <v>691.5760929882894</v>
+      </c>
+      <c r="K4" t="n">
         <v>691.5760929882895</v>
-      </c>
-      <c r="K4" t="n">
-        <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
         <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O4" t="n">
         <v>431.380777542711</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.3811720850467</v>
+        <v>44.38117208504679</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766592</v>
+        <v>87.33542894766595</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411201</v>
+        <v>27.90169797411215</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641146</v>
+        <v>311.1522545641143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006016</v>
+        <v>69.27158386006005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853613</v>
+        <v>50.95693911853624</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.3811720850467</v>
+        <v>44.38117208504679</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G12" t="n">
-        <v>73.8497855847549</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>73.84978558475396</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119065</v>
       </c>
       <c r="N13" t="n">
-        <v>116.6552291119085</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D15" t="n">
-        <v>131.7166010327126</v>
+        <v>25.62732717692633</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>77.1878985295231</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="L16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="N16" t="n">
-        <v>49.33459915445722</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119074</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.32062995745123</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="17">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>70.09785860389155</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>91.46305836409194</v>
       </c>
     </row>
     <row r="19">
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>54.65371617201274</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H19" t="n">
         <v>160.2266402957612</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R19" t="n">
         <v>167.1761804170863</v>
@@ -28785,7 +28785,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>45.27677098060482</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.2514242657429</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -28892,13 +28892,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>13.17571167656506</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28934,13 +28934,13 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28962,10 +28962,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>114.6165512563492</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R22" t="n">
         <v>167.1761804170863</v>
@@ -29013,13 +29013,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
-        <v>56.94660481768562</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.2514242657429</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>69.03602086629336</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,19 +29165,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.7659706229939</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170863</v>
@@ -29247,19 +29247,19 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
-        <v>46.55130405922665</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>190.6978190035361</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29317,7 +29317,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R26" t="n">
         <v>150.044060278452</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>66.03859081153973</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
@@ -29372,7 +29372,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S27" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="T27" t="n">
-        <v>66.03859081153973</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,31 +29451,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930778</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12.84777398903401</v>
+      </c>
+      <c r="O28" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="L28" t="n">
+      <c r="P28" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Q28" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>91.42399569050899</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
-        <v>80.15602968011626</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S30" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="T30" t="n">
-        <v>68.6375855253529</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>66.03859081153976</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29697,13 +29697,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.10336573305774</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="N31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>150.044060278452</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.32062995745123</v>
+        <v>91.42399569050855</v>
       </c>
       <c r="R31" t="n">
         <v>150.044060278452</v>
@@ -29791,7 +29791,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.0440602784528</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R32" t="n">
         <v>150.044060278452</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>66.03859081153976</v>
       </c>
       <c r="G33" t="n">
         <v>137.0751276698277</v>
@@ -29846,7 +29846,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S33" t="n">
-        <v>149.5327334364241</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T33" t="n">
         <v>150.044060278452</v>
@@ -29910,13 +29910,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
-        <v>150.044060278452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29928,28 +29928,28 @@
         <v>150.044060278452</v>
       </c>
       <c r="J34" t="n">
+        <v>77.45106251930778</v>
+      </c>
+      <c r="K34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="M34" t="n">
-        <v>7.809089096912473</v>
-      </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O34" t="n">
-        <v>150.044060278452</v>
+        <v>22.74315404624838</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S36" t="n">
         <v>166.6979539789397</v>
@@ -30122,16 +30122,16 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>3.230474982717823</v>
+        <v>3.320764408891449</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30153,10 +30153,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7659706229939</v>
+        <v>132.7541342374928</v>
       </c>
       <c r="H37" t="n">
         <v>160.2266402957612</v>
@@ -30186,25 +30186,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170863</v>
       </c>
       <c r="S37" t="n">
-        <v>39.66242502957519</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>80.15602968011626</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,25 +30347,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>71.67388973385241</v>
       </c>
       <c r="T39" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>209.0034601861953</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30423,13 +30423,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170863</v>
       </c>
       <c r="S40" t="n">
-        <v>39.66242502957493</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T40" t="n">
         <v>226.984188467659</v>
@@ -30438,7 +30438,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="V40" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768557</v>
       </c>
       <c r="W40" t="n">
         <v>237.379489226118</v>
@@ -30499,10 +30499,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>46.15486527700787</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15486527700744</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>220.9000151151833</v>
@@ -30557,7 +30557,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S42" t="n">
         <v>16.43825094633226</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R43" t="n">
         <v>167.1761804170863</v>
@@ -30672,7 +30672,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658843</v>
       </c>
       <c r="V43" t="n">
         <v>220.9000151151833</v>
@@ -30681,7 +30681,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="X43" t="n">
-        <v>100.7993666658843</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30718,7 +30718,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="J44" t="n">
-        <v>46.15486527700761</v>
+        <v>46.15486527700794</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0751276698277</v>
@@ -30794,7 +30794,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>152.7950219909434</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>70.6403120825758</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>28.51482456891335</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170863</v>
       </c>
       <c r="S46" t="n">
-        <v>99.99466098870843</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
         <v>220.9000151151833</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293625</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944959</v>
       </c>
       <c r="I11" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529489</v>
       </c>
       <c r="K11" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930718</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603009</v>
+        <v>88.0797979860301</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203778</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749706</v>
       </c>
       <c r="P11" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882059</v>
+        <v>54.1691415988206</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632371</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31792,7 +31792,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634899</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I12" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298812</v>
       </c>
       <c r="J12" t="n">
         <v>25.35692139018442</v>
@@ -31844,19 +31844,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422263</v>
       </c>
       <c r="M12" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068128</v>
+        <v>69.8036340706813</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782759</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713473</v>
       </c>
       <c r="Q12" t="n">
         <v>34.25968340095294</v>
@@ -31865,7 +31865,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898145</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678408</v>
@@ -31917,25 +31917,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J13" t="n">
-        <v>15.90811759736499</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K13" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174709</v>
+        <v>33.4526623617471</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109485</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424315</v>
@@ -31944,13 +31944,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964728</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225469</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262827</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S14" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T14" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H15" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I15" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J15" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R15" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T15" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J16" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K16" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N16" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R16" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262827</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S17" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T17" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H18" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I18" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J18" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R18" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T18" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J19" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K19" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L19" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N19" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R19" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262827</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I20" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S20" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T20" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H21" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I21" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J21" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R21" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T21" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J22" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K22" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R22" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262827</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I23" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S23" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T23" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H24" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I24" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J24" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R24" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T24" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J25" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K25" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R25" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262827</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I26" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S26" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T26" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H27" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I27" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J27" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R27" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T27" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J28" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K28" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R28" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262827</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I29" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S29" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T29" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H30" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I30" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J30" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R30" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T30" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J31" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K31" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P31" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R31" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262827</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I32" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S32" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T32" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H33" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I33" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J33" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R33" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T33" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J34" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K34" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P34" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R34" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262827</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I35" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S35" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T35" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H36" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I36" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J36" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R36" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T36" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J37" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K37" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P37" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R37" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262827</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S38" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T38" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H39" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I39" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J39" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R39" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T39" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J40" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K40" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P40" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R40" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262827</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I41" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S41" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T41" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H42" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I42" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J42" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R42" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T42" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J43" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K43" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P43" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R43" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262827</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749704</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S44" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T44" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H45" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566875</v>
       </c>
       <c r="I45" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298806</v>
       </c>
       <c r="J45" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422262</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782755</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713472</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R45" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T45" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J46" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K46" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174709</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P46" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R46" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225463</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262827</v>
@@ -35416,7 +35416,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M11" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N11" t="n">
         <v>297.438882017431</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427579</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478076</v>
@@ -35498,13 +35498,13 @@
         <v>380.4238384241748</v>
       </c>
       <c r="N12" t="n">
-        <v>155.5129594188053</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O12" t="n">
-        <v>315.1227627601127</v>
+        <v>155.9880512624229</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>104.3551970507805</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340483</v>
+        <v>54.26553851340492</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999279</v>
+        <v>135.5890331999281</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547758</v>
+        <v>192.759288654776</v>
       </c>
       <c r="M13" t="n">
-        <v>206.571620045648</v>
+        <v>191.510248124842</v>
       </c>
       <c r="N13" t="n">
-        <v>195.2198746191357</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O13" t="n">
-        <v>56.38908990501704</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851006</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526139</v>
+        <v>64.39597107526147</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L14" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M14" t="n">
         <v>307.2470982515898</v>
@@ -35659,13 +35659,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O14" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P14" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427576</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
@@ -35735,13 +35735,13 @@
         <v>380.4238384241748</v>
       </c>
       <c r="N15" t="n">
-        <v>276.1107667815514</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O15" t="n">
-        <v>315.1227627601127</v>
+        <v>210.8096911174891</v>
       </c>
       <c r="P15" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q15" t="n">
         <v>104.3551970507805</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340483</v>
+        <v>54.26553851340488</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M16" t="n">
-        <v>206.571620045648</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N16" t="n">
-        <v>127.8992446616844</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377297</v>
+        <v>173.0443190169244</v>
       </c>
       <c r="P16" t="n">
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.39597107526143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L17" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M17" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N17" t="n">
         <v>297.438882017431</v>
       </c>
       <c r="O17" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P17" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L18" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>365.9739823579186</v>
+        <v>300.7210968454779</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q18" t="n">
         <v>104.3551970507805</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L19" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M19" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N19" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O19" t="n">
         <v>56.38908990501704</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L20" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M20" t="n">
         <v>307.2470982515898</v>
@@ -36133,13 +36133,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O20" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P20" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427591</v>
+        <v>44.17844238427576</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K21" t="n">
         <v>169.9628154850614</v>
@@ -36206,19 +36206,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>365.9739823579186</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>89.90534098452429</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215322</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M22" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N22" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068362</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L23" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M23" t="n">
         <v>307.2470982515898</v>
@@ -36370,13 +36370,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O23" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P23" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427576</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241748</v>
+        <v>300.6729066938569</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241748</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>139.7936311020789</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215322</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N25" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M26" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N26" t="n">
         <v>447.482942295883</v>
@@ -36613,10 +36613,10 @@
         <v>312.7431224494998</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.2225026627277</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36680,7 +36680,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M27" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N27" t="n">
         <v>417.8042963309015</v>
@@ -36689,7 +36689,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P27" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q27" t="n">
         <v>104.3551970507805</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.360211686809465</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.59299775914425</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9164924456673</v>
+        <v>3.872432167215322</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913874</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N28" t="n">
-        <v>78.5646455072272</v>
+        <v>91.41241949626119</v>
       </c>
       <c r="O28" t="n">
-        <v>56.38908990501704</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238787</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.10336573305776</v>
+        <v>82.72343032100079</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M29" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N29" t="n">
         <v>447.482942295883</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36917,7 +36917,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M30" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N30" t="n">
         <v>417.8042963309015</v>
@@ -36926,7 +36926,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P30" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q30" t="n">
         <v>104.3551970507805</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215322</v>
       </c>
       <c r="L31" t="n">
-        <v>85.14605335512097</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8990792913874</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N31" t="n">
-        <v>228.6087057856792</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O31" t="n">
         <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>24.1033657330573</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K32" t="n">
         <v>317.907360533448</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182223</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N32" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958829</v>
       </c>
       <c r="O32" t="n">
         <v>385.2630835770076</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494997</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.2225026627286</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362601</v>
+        <v>31.68472776362603</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37154,7 +37154,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M33" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N33" t="n">
         <v>417.8042963309015</v>
@@ -37163,7 +37163,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P33" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q33" t="n">
         <v>104.3551970507805</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.428587260239624</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882809</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.623012255520734</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809412</v>
+        <v>1.360211686809436</v>
       </c>
       <c r="J34" t="n">
-        <v>72.5929977591442</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.872432167215333</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L34" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M34" t="n">
-        <v>82.6641081098479</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N34" t="n">
-        <v>78.5646455072272</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O34" t="n">
-        <v>206.433150183469</v>
+        <v>79.13224395126541</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100075</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L35" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M35" t="n">
         <v>307.2470982515898</v>
@@ -37318,13 +37318,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O35" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P35" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427576</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P36" t="n">
-        <v>139.7936311020791</v>
+        <v>115.1833010381522</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215322</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M37" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N37" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L38" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M38" t="n">
         <v>307.2470982515898</v>
@@ -37555,13 +37555,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O38" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P38" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427576</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241749</v>
+        <v>114.5156710484507</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>139.7936311020791</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215322</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M40" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N40" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,16 +37774,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604392</v>
+        <v>29.76276805604391</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M41" t="n">
         <v>307.2470982515898</v>
@@ -37792,19 +37792,19 @@
         <v>297.438882017431</v>
       </c>
       <c r="O41" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6990621710478</v>
+        <v>208.8539274480556</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.33330766128323</v>
+        <v>44.17844238427576</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003574</v>
+        <v>102.5406826003573</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372459</v>
+        <v>23.31057431372458</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>57.29211258658282</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>290.5606228478076</v>
+        <v>243.49753838361</v>
       </c>
       <c r="M42" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N42" t="n">
         <v>417.8042963309015</v>
@@ -37874,10 +37874,10 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215322</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M43" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N43" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,16 +38011,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604392</v>
+        <v>29.76276805604391</v>
       </c>
       <c r="J44" t="n">
-        <v>76.77980871768997</v>
+        <v>76.77980871769029</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L44" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M44" t="n">
         <v>307.2470982515898</v>
@@ -38029,19 +38029,19 @@
         <v>297.438882017431</v>
       </c>
       <c r="O44" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427576</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003574</v>
+        <v>102.5406826003573</v>
       </c>
       <c r="S44" t="n">
-        <v>23.31057431372459</v>
+        <v>23.31057431372458</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>57.29211258658282</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M45" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N45" t="n">
         <v>417.8042963309015</v>
@@ -38111,7 +38111,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P45" t="n">
-        <v>235.7389829927417</v>
+        <v>123.068280094263</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215322</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206323</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M46" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N46" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501704</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
